--- a/src/other/TableTemplate.xlsx
+++ b/src/other/TableTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PDDLatest\pddwebapp\src\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D99168C-4A94-4908-9CE5-E572A006569E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE34ED-B445-4FAC-8D79-E04AC18C5DF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>คำนำหน้า</t>
   </si>
@@ -115,6 +115,141 @@
   </si>
   <si>
     <t>อายเมื่อเริ่มมีอาการ</t>
+  </si>
+  <si>
+    <t>&lt;ที่อยู่&gt;</t>
+  </si>
+  <si>
+    <t>ครั้งที่นอนโรงพยาบาล</t>
+  </si>
+  <si>
+    <t>ครั้งที่มาตรวจติดตาม</t>
+  </si>
+  <si>
+    <t>เวลานอนเฉลี่ย</t>
+  </si>
+  <si>
+    <t>การวินิจฉัยโรค</t>
+  </si>
+  <si>
+    <t>การวินิจฉัยชนิดของโรค</t>
+  </si>
+  <si>
+    <t>TMSE</t>
+  </si>
+  <si>
+    <t>MOCA</t>
+  </si>
+  <si>
+    <t>PDQ8</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>UPDRS1</t>
+  </si>
+  <si>
+    <t>UPDRS2</t>
+  </si>
+  <si>
+    <t>UPDRS3</t>
+  </si>
+  <si>
+    <t>UPDRS4</t>
+  </si>
+  <si>
+    <t>UPDRS5</t>
+  </si>
+  <si>
+    <t>WOQ9</t>
+  </si>
+  <si>
+    <t>dexterity index</t>
+  </si>
+  <si>
+    <t>เวลาตื่นเฉลี่ย</t>
+  </si>
+  <si>
+    <t>(ชื่อกลาง)</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>HealthRight</t>
+  </si>
+  <si>
+    <t>BloodGroup</t>
+  </si>
+  <si>
+    <t>Underlyingisease</t>
+  </si>
+  <si>
+    <t>DrugAllergy</t>
+  </si>
+  <si>
+    <t>AgeOnset</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>NumOfAdmission</t>
+  </si>
+  <si>
+    <t>NumOfFollowUp</t>
+  </si>
+  <si>
+    <t>SleepTime</t>
+  </si>
+  <si>
+    <t>WakeTime</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Subtypediagnosis</t>
+  </si>
+  <si>
+    <t>อายุเมื่อวินิจฉัย</t>
+  </si>
+  <si>
+    <t>DiagOnset</t>
   </si>
 </sst>
 </file>
@@ -219,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -231,12 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -244,9 +373,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,6 +386,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AB43"/>
+  <dimension ref="C1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,29 +835,30 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="13"/>
       <c r="Q3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -722,26 +867,26 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="13"/>
       <c r="Q4" s="4" t="s">
         <v>21</v>
       </c>
@@ -749,7 +894,9 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -758,28 +905,28 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
       <c r="Q5" s="4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="V5" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -789,7 +936,7 @@
     </row>
     <row r="6" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -803,13 +950,15 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="Q6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -817,29 +966,31 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="3:28" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+    <row r="7" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="Q7" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="V7" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -847,29 +998,31 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+    <row r="8" spans="3:28" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
       <c r="Q8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -878,7 +1031,9 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -891,13 +1046,15 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="Q9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -919,13 +1076,15 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -947,13 +1106,15 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="V11" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -975,13 +1136,15 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -1003,13 +1166,15 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="V13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -1018,32 +1183,28 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="V14" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -1052,34 +1213,34 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="10">
-        <v>233089</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="D15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
       <c r="Q15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="V15" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -1088,32 +1249,36 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="3:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="D16" s="12">
+        <v>233089</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="13"/>
       <c r="Q16" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="V16" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -1123,29 +1288,33 @@
     </row>
     <row r="17" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -1154,26 +1323,32 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="V18" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -1194,12 +1369,16 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -1220,12 +1399,16 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -1246,12 +1429,16 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="V21" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -1272,12 +1459,16 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="V22" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -1298,12 +1489,16 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -1324,18 +1519,22 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
+      <c r="Q24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
@@ -1350,12 +1549,16 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="Q25" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="V25" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -1376,12 +1579,16 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="Q26" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -1402,18 +1609,22 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="Q27" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
+      <c r="V27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
     </row>
     <row r="28" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
@@ -1428,12 +1639,16 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="Q28" s="4"/>
+      <c r="Q28" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
@@ -1454,12 +1669,16 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="V29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -1480,12 +1699,16 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="V30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -1494,238 +1717,270 @@
       <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
     </row>
     <row r="32" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="Q32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
     </row>
     <row r="33" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="Q33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
     </row>
     <row r="34" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="Q34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
     </row>
     <row r="35" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="Q35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
     </row>
     <row r="36" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="Q36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
     </row>
     <row r="37" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="Q37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
     </row>
     <row r="38" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-    </row>
-    <row r="39" spans="4:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="Q38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="4:28" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="4:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
@@ -1805,23 +2060,49 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="4:28" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="4:28" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+    </row>
+    <row r="44" spans="4:28" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:O14"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
